--- a/2T1617CR/MIDTERM ITE3 SCORESHEET.xlsx
+++ b/2T1617CR/MIDTERM ITE3 SCORESHEET.xlsx
@@ -1326,12 +1326,10 @@
         <filter val="ITE3 2A"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Project 04"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
+  <sortState ref="A2:M131">
+    <sortCondition ref="C1:C153"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="Timestamp" dataDxfId="12"/>
     <tableColumn id="2" name="Section" dataDxfId="11"/>
@@ -1652,9 +1650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K157" sqref="K157"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1662,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.1796875" style="1" customWidth="1"/>
-    <col min="6" max="11" width="9.36328125" customWidth="1"/>
+    <col min="6" max="11" width="9.36328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,7 +1706,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>42793.640768819445</v>
       </c>
@@ -1738,7 +1736,7 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K95" si="0">SUM(F2:J2)</f>
+        <f>SUM(F2:J2)</f>
         <v>63</v>
       </c>
       <c r="L2" s="2">
@@ -1747,7 +1745,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42793.644585740738</v>
       </c>
@@ -1777,7 +1775,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42793.662374027779</v>
       </c>
@@ -1807,7 +1805,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:J4)</f>
         <v>53</v>
       </c>
       <c r="L4" s="2">
@@ -1816,7 +1814,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42793.663332974538</v>
       </c>
@@ -1846,7 +1844,7 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:J5)</f>
         <v>53</v>
       </c>
       <c r="L5" s="2">
@@ -1855,7 +1853,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42793.665469074069</v>
       </c>
@@ -1885,7 +1883,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:J6)</f>
         <v>55</v>
       </c>
       <c r="L6" s="2">
@@ -1894,7 +1892,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>42793.665717384254</v>
       </c>
@@ -1924,7 +1922,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:J7)</f>
         <v>75</v>
       </c>
       <c r="L7" s="2">
@@ -1933,7 +1931,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42793.666364432866</v>
       </c>
@@ -1963,7 +1961,7 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:J8)</f>
         <v>65</v>
       </c>
       <c r="L8" s="2">
@@ -1972,87 +1970,89 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>42793.668145659722</v>
+        <v>42795.633099768515</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4">
         <v>20</v>
       </c>
       <c r="G9" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(F9:J9)</f>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>42793.671420347222</v>
+        <v>42800.66018741898</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <f>SUM(F10:J10)</f>
+        <v>60</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4">
-        <v>35</v>
-      </c>
-      <c r="H10" s="4">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="L10" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>37.5</v>
-      </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>42795.633099768515</v>
+        <v>42801.431657928246</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -2061,31 +2061,33 @@
         <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4">
+        <v>92</v>
+      </c>
+      <c r="F11" s="2">
         <v>20</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(F11:J11)</f>
+        <v>50</v>
       </c>
       <c r="L11" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M11" s="2"/>
     </row>
@@ -2111,7 +2113,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F12:J12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="2">
@@ -2150,7 +2152,7 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F13:J13)</f>
         <v>30</v>
       </c>
       <c r="L13" s="2">
@@ -2221,7 +2223,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F15:J15)</f>
         <v>43</v>
       </c>
       <c r="L15" s="2">
@@ -2260,7 +2262,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F16:J16)</f>
         <v>30</v>
       </c>
       <c r="L16" s="2">
@@ -2331,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F18:J18)</f>
         <v>90</v>
       </c>
       <c r="L18" s="2">
@@ -2362,7 +2364,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F19:J19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="2">
@@ -2393,7 +2395,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F20:J20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="2">
@@ -2424,7 +2426,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F21:J21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="2">
@@ -2605,7 +2607,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F27:J27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
@@ -2736,249 +2738,193 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>42798.930827800927</v>
+        <v>42801.489014444443</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="2">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F32:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>42801.649508495371</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>70</v>
+      </c>
+      <c r="L33" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
         <v>35</v>
-      </c>
-      <c r="L32" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>17.5</v>
-      </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>42798.956468055556</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="2">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>5</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="L33" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>17.5</v>
       </c>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>42798.961944745373</v>
+        <v>42804.658571388893</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="2">
+        <v>175</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>60</v>
+      </c>
+      <c r="L34" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
+        <v>30</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>42806.741545567129</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>40</v>
+      </c>
+      <c r="L35" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
         <v>20</v>
-      </c>
-      <c r="G34" s="2">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>5</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="L34" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>17.5</v>
-      </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>42799.095109560185</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="2">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2">
-        <v>10</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>5</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="L35" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>17.5</v>
       </c>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>42799.650724282408</v>
+        <v>42807.645843680555</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="2">
+        <v>209</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>60</v>
+      </c>
+      <c r="L36" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
+        <v>30</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>42793.668145659722</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="4">
         <v>20</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="4">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4">
         <v>10</v>
       </c>
-      <c r="H36" s="2">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>10</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="0"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <f>SUM(F37:J37)</f>
         <v>50</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
         <v>25</v>
-      </c>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>42799.661145023143</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="2">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2">
-        <v>20</v>
-      </c>
-      <c r="H37" s="2">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
-        <v>10</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="L37" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>35</v>
       </c>
       <c r="M37" s="2"/>
     </row>
@@ -3072,48 +3018,48 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>42800.66018741898</v>
+        <v>42798.930827800927</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2">
         <v>20</v>
       </c>
       <c r="G41" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <v>5</v>
       </c>
-      <c r="I41" s="2">
-        <v>5</v>
-      </c>
-      <c r="J41" s="2">
-        <v>10</v>
-      </c>
       <c r="K41" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>SUM(F41:J41)</f>
+        <v>35</v>
       </c>
       <c r="L41" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>42800.660956967593</v>
       </c>
@@ -3145,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F42:J42)</f>
         <v>65</v>
       </c>
       <c r="L42" s="2">
@@ -3154,7 +3100,7 @@
       </c>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42801.42414427083</v>
       </c>
@@ -3186,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F43:J43)</f>
         <v>60</v>
       </c>
       <c r="L43" s="2">
@@ -3195,50 +3141,39 @@
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>42801.431657928246</v>
+        <v>42801.432975833333</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="2">
+        <v>94</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>40</v>
+      </c>
+      <c r="L44" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
         <v>20</v>
       </c>
-      <c r="G44" s="2">
-        <v>10</v>
-      </c>
-      <c r="H44" s="2">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2">
-        <v>5</v>
-      </c>
-      <c r="J44" s="2">
-        <v>5</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L44" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
-      </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>42801.432975833333</v>
+        <v>42801.862155752315</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>11</v>
@@ -3247,10 +3182,10 @@
         <v>27</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3266,21 +3201,21 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>42801.435409062498</v>
+        <v>42802.437989733793</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3288,29 +3223,29 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L46" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>42801.435963564814</v>
+        <v>42803.494300127313</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3318,29 +3253,29 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L47" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>42801.449704340281</v>
+        <v>42804.594323935184</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3348,29 +3283,30 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2">
-        <v>70</v>
+        <f>SUM(F48:J48)</f>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>42801.455902187503</v>
+        <v>42804.628402881943</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3378,29 +3314,29 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L49" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>42801.489014444443</v>
+        <v>42804.658898645837</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3408,42 +3344,39 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L50" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>42801.649508495371</v>
+        <v>42805.55506186343</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2">
-        <v>70</v>
-      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2"/>
     </row>
@@ -3469,7 +3402,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F52:J52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="2">
@@ -3570,9 +3503,9 @@
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>42801.862155752315</v>
+        <v>42806.74241309028</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>11</v>
@@ -3581,10 +3514,10 @@
         <v>27</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3592,11 +3525,11 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L56" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M56" s="2"/>
     </row>
@@ -3682,7 +3615,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F59:J59)</f>
         <v>0</v>
       </c>
       <c r="L59" s="2">
@@ -3903,9 +3836,9 @@
       </c>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>42802.437989733793</v>
+        <v>42807.647875347218</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>11</v>
@@ -3914,10 +3847,10 @@
         <v>27</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3933,9 +3866,9 @@
       </c>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>42802.438635925922</v>
+        <v>42793.671420347222</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>11</v>
@@ -3944,75 +3877,90 @@
         <v>30</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F68" s="4">
+        <v>20</v>
+      </c>
+      <c r="G68" s="4">
+        <v>35</v>
+      </c>
+      <c r="H68" s="4">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4">
+        <v>10</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
-        <v>50</v>
+        <f>SUM(F68:J68)</f>
+        <v>75</v>
       </c>
       <c r="L68" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>42802.439267789348</v>
+        <v>42798.956468055556</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F69" s="2">
+        <v>20</v>
+      </c>
+      <c r="G69" s="2">
+        <v>10</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
       <c r="J69" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(F69:J69)</f>
+        <v>35</v>
       </c>
       <c r="L69" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>42802.439979861112</v>
+        <v>42801.435409062498</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -4020,15 +3968,13 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L70" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M70" s="2"/>
     </row>
     <row r="71" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -4052,7 +3998,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F71:J71)</f>
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -4123,19 +4069,19 @@
     </row>
     <row r="74" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>42802.63745480324</v>
+        <v>42801.455902187503</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4151,21 +4097,21 @@
       </c>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>42802.638291053241</v>
+        <v>42802.438635925922</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4173,11 +4119,11 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L75" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M75" s="2"/>
     </row>
@@ -4203,7 +4149,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F76:J76)</f>
         <v>0</v>
       </c>
       <c r="L76" s="2">
@@ -4262,7 +4208,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F78:J78)</f>
         <v>0</v>
       </c>
       <c r="L78" s="2">
@@ -4301,21 +4247,21 @@
       </c>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>42803.494300127313</v>
+        <v>42803.96020371528</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4323,11 +4269,11 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L80" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M80" s="2"/>
     </row>
@@ -4353,7 +4299,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F81:J81)</f>
         <v>0</v>
       </c>
       <c r="L81" s="2">
@@ -4384,7 +4330,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F82:J82)</f>
         <v>0</v>
       </c>
       <c r="L82" s="2">
@@ -4415,7 +4361,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F83:J83)</f>
         <v>0</v>
       </c>
       <c r="L83" s="2">
@@ -4446,7 +4392,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F84:J84)</f>
         <v>0</v>
       </c>
       <c r="L84" s="2">
@@ -4477,7 +4423,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F85:J85)</f>
         <v>0</v>
       </c>
       <c r="L85" s="2">
@@ -4508,7 +4454,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F86:J86)</f>
         <v>0</v>
       </c>
       <c r="L86" s="2">
@@ -4517,9 +4463,9 @@
       </c>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>42803.96020371528</v>
+        <v>42804.595054282407</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>11</v>
@@ -4528,10 +4474,10 @@
         <v>30</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4539,61 +4485,58 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2">
-        <v>40</v>
+        <f>SUM(F87:J87)</f>
+        <v>0</v>
       </c>
       <c r="L87" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>42803.966720439814</v>
+        <v>42804.595782199074</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="2">
-        <v>50</v>
-      </c>
+      <c r="K88" s="2"/>
       <c r="L88" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>42803.969048993051</v>
+        <v>42804.629008217591</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4601,11 +4544,11 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L89" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M89" s="2"/>
     </row>
@@ -4691,7 +4634,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F92:J92)</f>
         <v>0</v>
       </c>
       <c r="L92" s="2">
@@ -4724,7 +4667,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F93:J93)</f>
         <v>0</v>
       </c>
       <c r="L93" s="2">
@@ -4735,21 +4678,21 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>42804.594323935184</v>
+        <v>42804.655902291663</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4757,18 +4700,17 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L94" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>42804.595054282407</v>
+        <v>42804.659314375</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>11</v>
@@ -4777,10 +4719,10 @@
         <v>30</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -4788,18 +4730,17 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L95" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>42804.595782199074</v>
+        <v>42805.555459398151</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>11</v>
@@ -4808,38 +4749,40 @@
         <v>30</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="2">
+        <v>50</v>
+      </c>
       <c r="L96" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>42804.628402881943</v>
+        <v>42806.742867141205</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -4855,9 +4798,9 @@
       </c>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>42804.629008217591</v>
+        <v>42807.648649606483</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>11</v>
@@ -4866,10 +4809,10 @@
         <v>30</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -4887,7 +4830,7 @@
     </row>
     <row r="99" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>42804.633789571759</v>
+        <v>42798.961944745373</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>11</v>
@@ -4896,70 +4839,92 @@
         <v>61</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F99" s="2">
+        <v>20</v>
+      </c>
+      <c r="G99" s="2">
+        <v>10</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>5</v>
+      </c>
       <c r="K99" s="2">
+        <f>SUM(F99:J99)</f>
+        <v>35</v>
+      </c>
+      <c r="L99" s="2">
+        <f>Table1[[#This Row],[Total]]/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>42799.650724282408</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="2">
         <v>20</v>
       </c>
-      <c r="L99" s="2">
-        <f>Table1[[#This Row],[Total]]/2</f>
+      <c r="G100" s="2">
         <v>10</v>
       </c>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>42804.655902291663</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="H100" s="2">
+        <v>10</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>10</v>
+      </c>
       <c r="K100" s="2">
-        <v>40</v>
+        <f>SUM(F100:J100)</f>
+        <v>50</v>
       </c>
       <c r="L100" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>42804.658571388893</v>
+        <v>42801.435963564814</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -4967,59 +4932,64 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L101" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>42804.658898645837</v>
+        <v>42802.439267789348</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="J102" s="2">
+        <v>50</v>
+      </c>
       <c r="K102" s="2">
+        <f>SUM(F102:J102)</f>
         <v>50</v>
       </c>
       <c r="L102" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
         <v>25</v>
       </c>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>42804.659314375</v>
+        <v>42802.63745480324</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -5027,39 +4997,41 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L103" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>42804.659749247687</v>
+        <v>42803.966720439814</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="2">
+        <v>50</v>
+      </c>
       <c r="L104" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>244</v>
@@ -5067,7 +5039,7 @@
     </row>
     <row r="105" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>42804.662635277782</v>
+        <v>42804.633789571759</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>11</v>
@@ -5076,10 +5048,10 @@
         <v>61</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5087,29 +5059,29 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L105" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>42804.665785856487</v>
+        <v>42804.662635277782</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5117,11 +5089,11 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L106" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M106" s="2"/>
     </row>
@@ -5183,49 +5155,51 @@
       </c>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>42805.55506186343</v>
+        <v>42806.743627662036</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="2">
+        <v>60</v>
+      </c>
       <c r="L109" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>42805.555459398151</v>
+        <v>42807.629798634254</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5233,11 +5207,11 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L110" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M110" s="2"/>
     </row>
@@ -5391,111 +5365,131 @@
       </c>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>42806.741545567129</v>
+        <v>42807.672517303239</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>126</v>
+        <v>61</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="2">
-        <v>40</v>
-      </c>
+      <c r="K116" s="2"/>
       <c r="L116" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>42799.095109560185</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F117" s="2">
         <v>20</v>
       </c>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>42806.74241309028</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="G117" s="2">
+        <v>10</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>5</v>
+      </c>
       <c r="K117" s="2">
-        <v>50</v>
+        <f>SUM(F117:J117)</f>
+        <v>35</v>
       </c>
       <c r="L117" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>42806.742867141205</v>
+        <v>42799.661145023143</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F118" s="2">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2">
+        <v>20</v>
+      </c>
+      <c r="H118" s="2">
+        <v>10</v>
+      </c>
+      <c r="I118" s="2">
+        <v>10</v>
+      </c>
+      <c r="J118" s="2">
+        <v>10</v>
+      </c>
       <c r="K118" s="2">
-        <v>40</v>
+        <f>SUM(F118:J118)</f>
+        <v>70</v>
       </c>
       <c r="L118" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M118" s="2"/>
     </row>
     <row r="119" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>42806.743627662036</v>
+        <v>42801.449704340281</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -5503,17 +5497,17 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L119" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>42806.987478750001</v>
+        <v>42802.439979861112</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>11</v>
@@ -5522,10 +5516,10 @@
         <v>66</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -5533,13 +5527,15 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L120" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="121" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
@@ -5633,19 +5629,19 @@
     </row>
     <row r="124" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>42807.629798634254</v>
+        <v>42802.638291053241</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -5653,17 +5649,17 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L124" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>42807.630658194445</v>
+        <v>42803.969048993051</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>11</v>
@@ -5672,10 +5668,10 @@
         <v>66</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -5683,17 +5679,17 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L125" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>42807.645672037033</v>
+        <v>42804.659749247687</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>11</v>
@@ -5702,40 +5698,40 @@
         <v>66</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="2">
-        <v>70</v>
-      </c>
+      <c r="K126" s="2"/>
       <c r="L126" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>35</v>
-      </c>
-      <c r="M126" s="2"/>
-    </row>
-    <row r="127" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>42807.645843680555</v>
+        <v>42804.665785856487</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -5743,29 +5739,29 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L127" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>42807.647875347218</v>
+        <v>42806.987478750001</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -5773,29 +5769,29 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L128" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>42807.648649606483</v>
+        <v>42807.630658194445</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -5803,17 +5799,17 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L129" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>42807.657089988425</v>
+        <v>42807.645672037033</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>11</v>
@@ -5822,10 +5818,10 @@
         <v>66</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -5833,26 +5829,26 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L130" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M130" s="2"/>
     </row>
     <row r="131" spans="1:13" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>42807.672517303239</v>
+        <v>42807.657089988425</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>214</v>
+        <v>66</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>209</v>
@@ -5862,10 +5858,12 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
+      <c r="K131" s="2">
+        <v>20</v>
+      </c>
       <c r="L131" s="2">
         <f>Table1[[#This Row],[Total]]/2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M131" s="2"/>
     </row>
@@ -6536,9 +6534,9 @@
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D37" r:id="rId8"/>
+    <hyperlink ref="D68" r:id="rId9"/>
+    <hyperlink ref="D9" r:id="rId10"/>
     <hyperlink ref="D12" r:id="rId11"/>
     <hyperlink ref="D13" r:id="rId12"/>
     <hyperlink ref="D14" r:id="rId13"/>
@@ -6558,30 +6556,30 @@
     <hyperlink ref="D29" r:id="rId27"/>
     <hyperlink ref="D30" r:id="rId28"/>
     <hyperlink ref="D31" r:id="rId29"/>
-    <hyperlink ref="D32" r:id="rId30"/>
-    <hyperlink ref="D33" r:id="rId31"/>
-    <hyperlink ref="D34" r:id="rId32"/>
-    <hyperlink ref="D35" r:id="rId33"/>
-    <hyperlink ref="D36" r:id="rId34"/>
-    <hyperlink ref="D37" r:id="rId35"/>
+    <hyperlink ref="D41" r:id="rId30"/>
+    <hyperlink ref="D69" r:id="rId31"/>
+    <hyperlink ref="D99" r:id="rId32"/>
+    <hyperlink ref="D117" r:id="rId33"/>
+    <hyperlink ref="D100" r:id="rId34"/>
+    <hyperlink ref="D118" r:id="rId35"/>
     <hyperlink ref="D38" r:id="rId36"/>
     <hyperlink ref="D39" r:id="rId37"/>
     <hyperlink ref="D40" r:id="rId38"/>
-    <hyperlink ref="D41" r:id="rId39"/>
+    <hyperlink ref="D10" r:id="rId39"/>
     <hyperlink ref="D42" r:id="rId40"/>
     <hyperlink ref="D43" r:id="rId41"/>
-    <hyperlink ref="D44" r:id="rId42"/>
-    <hyperlink ref="D45" r:id="rId43"/>
-    <hyperlink ref="D46" r:id="rId44"/>
-    <hyperlink ref="D47" r:id="rId45"/>
-    <hyperlink ref="D48" r:id="rId46"/>
-    <hyperlink ref="D49" r:id="rId47"/>
-    <hyperlink ref="D51" r:id="rId48"/>
+    <hyperlink ref="D11" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D70" r:id="rId44"/>
+    <hyperlink ref="D101" r:id="rId45"/>
+    <hyperlink ref="D119" r:id="rId46"/>
+    <hyperlink ref="D74" r:id="rId47"/>
+    <hyperlink ref="D33" r:id="rId48"/>
     <hyperlink ref="D52" r:id="rId49"/>
     <hyperlink ref="D53" r:id="rId50"/>
     <hyperlink ref="D54" r:id="rId51"/>
     <hyperlink ref="D55" r:id="rId52"/>
-    <hyperlink ref="D56" r:id="rId53"/>
+    <hyperlink ref="D45" r:id="rId53"/>
     <hyperlink ref="D57" r:id="rId54"/>
     <hyperlink ref="D58" r:id="rId55"/>
     <hyperlink ref="D59" r:id="rId56"/>
@@ -6592,67 +6590,67 @@
     <hyperlink ref="D64" r:id="rId61"/>
     <hyperlink ref="D65" r:id="rId62"/>
     <hyperlink ref="D66" r:id="rId63"/>
-    <hyperlink ref="D67" r:id="rId64"/>
-    <hyperlink ref="D68" r:id="rId65"/>
-    <hyperlink ref="D69" r:id="rId66"/>
-    <hyperlink ref="D70" r:id="rId67"/>
+    <hyperlink ref="D46" r:id="rId64"/>
+    <hyperlink ref="D75" r:id="rId65"/>
+    <hyperlink ref="D102" r:id="rId66"/>
+    <hyperlink ref="D120" r:id="rId67"/>
     <hyperlink ref="D71" r:id="rId68"/>
     <hyperlink ref="D72" r:id="rId69"/>
     <hyperlink ref="D73" r:id="rId70"/>
-    <hyperlink ref="D74" r:id="rId71"/>
-    <hyperlink ref="D75" r:id="rId72"/>
+    <hyperlink ref="D103" r:id="rId71"/>
+    <hyperlink ref="D124" r:id="rId72"/>
     <hyperlink ref="D79" r:id="rId73"/>
-    <hyperlink ref="D80" r:id="rId74"/>
+    <hyperlink ref="D47" r:id="rId74"/>
     <hyperlink ref="D81" r:id="rId75"/>
     <hyperlink ref="D82" r:id="rId76"/>
     <hyperlink ref="D83" r:id="rId77"/>
     <hyperlink ref="D84" r:id="rId78"/>
     <hyperlink ref="D85" r:id="rId79"/>
     <hyperlink ref="D86" r:id="rId80"/>
-    <hyperlink ref="D87" r:id="rId81"/>
-    <hyperlink ref="D88" r:id="rId82"/>
-    <hyperlink ref="D89" r:id="rId83"/>
+    <hyperlink ref="D80" r:id="rId81"/>
+    <hyperlink ref="D104" r:id="rId82"/>
+    <hyperlink ref="D125" r:id="rId83"/>
     <hyperlink ref="D90" r:id="rId84"/>
     <hyperlink ref="D91" r:id="rId85"/>
     <hyperlink ref="D92" r:id="rId86"/>
     <hyperlink ref="D93" r:id="rId87"/>
-    <hyperlink ref="D94" r:id="rId88"/>
-    <hyperlink ref="D95" r:id="rId89"/>
-    <hyperlink ref="D96" r:id="rId90"/>
-    <hyperlink ref="D97" r:id="rId91"/>
-    <hyperlink ref="D98" r:id="rId92"/>
-    <hyperlink ref="D99" r:id="rId93"/>
-    <hyperlink ref="D100" r:id="rId94"/>
-    <hyperlink ref="D101" r:id="rId95"/>
-    <hyperlink ref="D102" r:id="rId96"/>
-    <hyperlink ref="D103" r:id="rId97"/>
-    <hyperlink ref="D104" r:id="rId98"/>
-    <hyperlink ref="D105" r:id="rId99"/>
-    <hyperlink ref="D106" r:id="rId100"/>
+    <hyperlink ref="D48" r:id="rId88"/>
+    <hyperlink ref="D87" r:id="rId89"/>
+    <hyperlink ref="D88" r:id="rId90"/>
+    <hyperlink ref="D49" r:id="rId91"/>
+    <hyperlink ref="D89" r:id="rId92"/>
+    <hyperlink ref="D105" r:id="rId93"/>
+    <hyperlink ref="D94" r:id="rId94"/>
+    <hyperlink ref="D34" r:id="rId95"/>
+    <hyperlink ref="D50" r:id="rId96"/>
+    <hyperlink ref="D95" r:id="rId97"/>
+    <hyperlink ref="D126" r:id="rId98"/>
+    <hyperlink ref="D106" r:id="rId99"/>
+    <hyperlink ref="D127" r:id="rId100"/>
     <hyperlink ref="D107" r:id="rId101"/>
     <hyperlink ref="D108" r:id="rId102"/>
-    <hyperlink ref="D109" r:id="rId103"/>
-    <hyperlink ref="D110" r:id="rId104"/>
+    <hyperlink ref="D51" r:id="rId103"/>
+    <hyperlink ref="D96" r:id="rId104"/>
     <hyperlink ref="D111" r:id="rId105"/>
     <hyperlink ref="D112" r:id="rId106"/>
     <hyperlink ref="D113" r:id="rId107"/>
     <hyperlink ref="D114" r:id="rId108"/>
     <hyperlink ref="D115" r:id="rId109"/>
-    <hyperlink ref="D116" r:id="rId110"/>
-    <hyperlink ref="D117" r:id="rId111"/>
-    <hyperlink ref="D118" r:id="rId112"/>
-    <hyperlink ref="D119" r:id="rId113"/>
-    <hyperlink ref="D120" r:id="rId114"/>
+    <hyperlink ref="D35" r:id="rId110"/>
+    <hyperlink ref="D56" r:id="rId111"/>
+    <hyperlink ref="D97" r:id="rId112"/>
+    <hyperlink ref="D109" r:id="rId113"/>
+    <hyperlink ref="D128" r:id="rId114"/>
     <hyperlink ref="D121" r:id="rId115"/>
     <hyperlink ref="D122" r:id="rId116"/>
     <hyperlink ref="D123" r:id="rId117"/>
-    <hyperlink ref="D124" r:id="rId118"/>
-    <hyperlink ref="D125" r:id="rId119"/>
-    <hyperlink ref="D126" r:id="rId120"/>
-    <hyperlink ref="D127" r:id="rId121"/>
-    <hyperlink ref="D128" r:id="rId122"/>
-    <hyperlink ref="D129" r:id="rId123"/>
-    <hyperlink ref="D130" r:id="rId124"/>
+    <hyperlink ref="D110" r:id="rId118"/>
+    <hyperlink ref="D129" r:id="rId119"/>
+    <hyperlink ref="D130" r:id="rId120"/>
+    <hyperlink ref="D36" r:id="rId121"/>
+    <hyperlink ref="D67" r:id="rId122"/>
+    <hyperlink ref="D98" r:id="rId123"/>
+    <hyperlink ref="D131" r:id="rId124"/>
     <hyperlink ref="D132" r:id="rId125"/>
     <hyperlink ref="D133" r:id="rId126"/>
     <hyperlink ref="D134" r:id="rId127"/>
